--- a/src/test/resources/packages.xlsx
+++ b/src/test/resources/packages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57901\smart-test-automation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686E1EDC-8376-41D7-A844-D4E777B1B063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F5B2E3-B7D0-4EEC-BAF3-0FED1EA07B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{75A6ABCC-9875-48AC-9A16-7CDC4958549E}"/>
   </bookViews>
@@ -60,10 +60,10 @@
     <t/>
   </si>
   <si>
-    <t>AL-25-1003</t>
-  </si>
-  <si>
-    <t>AL-25-1004</t>
+    <t>AL-25-1009</t>
+  </si>
+  <si>
+    <t>AL-25-1010</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
         <v>7</v>
       </c>
